--- a/rad_pipeline/rpe_h2a_week3.xlsx
+++ b/rad_pipeline/rpe_h2a_week3.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Plate3" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plate8" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Control" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Control2" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>Location</t>
   </si>
@@ -390,11 +391,11 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,6 +414,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1186,195 +1191,218 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
+    <row r="24">
+      <c r="A24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+    <row r="25">
+      <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>100</v>
       </c>
     </row>
